--- a/race_means_data.xlsx
+++ b/race_means_data.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>60.20303622575707</v>
+        <v>59.57966638776661</v>
       </c>
       <c r="C2">
-        <v>1.388208755410181</v>
+        <v>0.6123803809011135</v>
       </c>
       <c r="D2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E2">
-        <v>57.48022130792192</v>
+        <v>58.37855185469733</v>
       </c>
       <c r="F2">
-        <v>62.92585114359221</v>
+        <v>60.78078092083588</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>63.3450166963725</v>
+        <v>62.72991342730861</v>
       </c>
       <c r="C3">
-        <v>1.275600192907396</v>
+        <v>0.3043562639336543</v>
       </c>
       <c r="D3">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E3">
-        <v>60.84307077440243</v>
+        <v>62.13295319924995</v>
       </c>
       <c r="F3">
-        <v>65.84696261834257</v>
+        <v>63.32687365536727</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>62.63828440838129</v>
+        <v>62.01403809670164</v>
       </c>
       <c r="C4">
-        <v>1.381539936179527</v>
+        <v>0.5972787481017056</v>
       </c>
       <c r="D4">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E4">
-        <v>59.92854962738782</v>
+        <v>60.84254370038749</v>
       </c>
       <c r="F4">
-        <v>65.34801918937477</v>
+        <v>63.18553249301579</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>62.40379930284482</v>
+        <v>61.97544811662673</v>
       </c>
       <c r="C5">
-        <v>1.50820069454186</v>
+        <v>1.02979845706817</v>
       </c>
       <c r="D5">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E5">
-        <v>59.44563372855082</v>
+        <v>59.9556154578848</v>
       </c>
       <c r="F5">
-        <v>65.3619648771388</v>
+        <v>63.99528077536866</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>62.73608329484618</v>
+        <v>62.11001428065479</v>
       </c>
       <c r="C6">
-        <v>1.270280669268241</v>
+        <v>0.2446429233130154</v>
       </c>
       <c r="D6">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E6">
-        <v>60.24457101858251</v>
+        <v>61.63017498506628</v>
       </c>
       <c r="F6">
-        <v>65.22759557110986</v>
+        <v>62.5898535762433</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>107.4176709304675</v>
+        <v>109.4713955268609</v>
       </c>
       <c r="C7">
-        <v>2.44736753917729</v>
+        <v>1.079147201917023</v>
       </c>
       <c r="D7">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E7">
-        <v>102.6174355054082</v>
+        <v>107.3547709125382</v>
       </c>
       <c r="F7">
-        <v>112.2179063555268</v>
+        <v>111.5880201411835</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>111.4837407395417</v>
+        <v>113.5303995655652</v>
       </c>
       <c r="C8">
-        <v>2.248842252955981</v>
+        <v>0.5363418242214374</v>
       </c>
       <c r="D8">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E8">
-        <v>107.072890274622</v>
+        <v>112.4784260212507</v>
       </c>
       <c r="F8">
-        <v>115.8945912044613</v>
+        <v>114.5823731098798</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>108.264227187169</v>
+        <v>110.3187009410274</v>
       </c>
       <c r="C9">
-        <v>2.435610624631018</v>
+        <v>1.052534845793075</v>
       </c>
       <c r="D9">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E9">
-        <v>103.4870516241006</v>
+        <v>108.2542734393109</v>
       </c>
       <c r="F9">
-        <v>113.0414027502374</v>
+        <v>112.383128442744</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>107.7397898400778</v>
+        <v>109.6268241174945</v>
       </c>
       <c r="C10">
-        <v>2.658909481734076</v>
+        <v>1.814728489257456</v>
       </c>
       <c r="D10">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E10">
-        <v>102.5246387514365</v>
+        <v>106.0674403912971</v>
       </c>
       <c r="F10">
-        <v>112.9549409287192</v>
+        <v>113.1862078436918</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>106.692711639765</v>
+        <v>108.7487433310839</v>
       </c>
       <c r="C11">
-        <v>2.239464103288205</v>
+        <v>0.4311139520400031</v>
       </c>
       <c r="D11">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E11">
-        <v>102.3002553577934</v>
+        <v>107.9031623011329</v>
       </c>
       <c r="F11">
-        <v>111.0851679217366</v>
+        <v>109.594324361035</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>125.2018256632766</v>
+        <v>127.0818207723118</v>
       </c>
       <c r="C12">
-        <v>3.164660275475552</v>
+        <v>1.395258094397726</v>
       </c>
       <c r="D12">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E12">
-        <v>118.9947014289974</v>
+        <v>124.3451805617002</v>
       </c>
       <c r="F12">
-        <v>131.4089498975558</v>
+        <v>129.8184609829234</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>131.8942413543677</v>
+        <v>133.7721945926575</v>
       </c>
       <c r="C13">
-        <v>2.9079497173249</v>
+        <v>0.6934505971749199</v>
       </c>
       <c r="D13">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E13">
-        <v>126.1906259292459</v>
+        <v>132.4120700422813</v>
       </c>
       <c r="F13">
-        <v>137.5978567794896</v>
+        <v>135.1323191430338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>130.8369711040953</v>
+        <v>132.7171827051237</v>
       </c>
       <c r="C14">
-        <v>3.149457556704812</v>
+        <v>1.360850271973711</v>
       </c>
       <c r="D14">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E14">
-        <v>124.6596652881911</v>
+        <v>130.0480295284761</v>
       </c>
       <c r="F14">
-        <v>137.0142769199995</v>
+        <v>135.3863358817714</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>129.9276085845828</v>
+        <v>131.7594334208735</v>
       </c>
       <c r="C15">
-        <v>3.438202508707687</v>
+        <v>2.34631068798834</v>
       </c>
       <c r="D15">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E15">
-        <v>123.1839621086741</v>
+        <v>127.1574116149305</v>
       </c>
       <c r="F15">
-        <v>136.6712550604915</v>
+        <v>136.3614552268164</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>130.5411248840836</v>
+        <v>132.4217866988549</v>
       </c>
       <c r="C16">
-        <v>2.895822949589371</v>
+        <v>0.5573986849273773</v>
       </c>
       <c r="D16">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E16">
-        <v>124.861294746273</v>
+        <v>131.3285125149322</v>
       </c>
       <c r="F16">
-        <v>136.2209550218942</v>
+        <v>133.5150608827777</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>103.4327053436555</v>
+        <v>97.63404865969781</v>
       </c>
       <c r="C17">
-        <v>3.390240522520453</v>
+        <v>1.497568901692478</v>
       </c>
       <c r="D17">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E17">
-        <v>96.78313089471726</v>
+        <v>94.6967374260352</v>
       </c>
       <c r="F17">
-        <v>110.0822797925938</v>
+        <v>100.5713598933604</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>110.0391758231333</v>
+        <v>104.2779802378972</v>
       </c>
       <c r="C18">
-        <v>3.115231371128872</v>
+        <v>0.744299605470133</v>
       </c>
       <c r="D18">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E18">
-        <v>103.929000810362</v>
+        <v>102.8181211356633</v>
       </c>
       <c r="F18">
-        <v>116.1493508359047</v>
+        <v>105.737839340131</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>105.5344659170152</v>
+        <v>99.73183737149215</v>
       </c>
       <c r="C19">
-        <v>3.373954138282481</v>
+        <v>1.460638039191799</v>
       </c>
       <c r="D19">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E19">
-        <v>98.91683537405497</v>
+        <v>96.8669618282138</v>
       </c>
       <c r="F19">
-        <v>112.1520964599753</v>
+        <v>102.5967129147705</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>101.4114678512074</v>
+        <v>96.49656512024713</v>
       </c>
       <c r="C20">
-        <v>3.683281128145957</v>
+        <v>2.518359817548138</v>
       </c>
       <c r="D20">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E20">
-        <v>94.18712730212829</v>
+        <v>91.55708849641452</v>
       </c>
       <c r="F20">
-        <v>108.6358084002866</v>
+        <v>101.4360417440797</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>105.6941230081925</v>
+        <v>99.88323463451829</v>
       </c>
       <c r="C21">
-        <v>3.102240194887053</v>
+        <v>0.5982713447377251</v>
       </c>
       <c r="D21">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E21">
-        <v>99.60942872253344</v>
+        <v>98.70979337269019</v>
       </c>
       <c r="F21">
-        <v>111.7788172938517</v>
+        <v>101.0566758963464</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>16.66917292493787</v>
+        <v>16.69782659335577</v>
       </c>
       <c r="C22">
-        <v>1.211626367786356</v>
+        <v>0.5341899912583558</v>
       </c>
       <c r="D22">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E22">
-        <v>14.2927044462642</v>
+        <v>15.65007362488801</v>
       </c>
       <c r="F22">
-        <v>19.04564140361154</v>
+        <v>17.74557956182353</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>19.34634630235584</v>
+        <v>19.37427897087493</v>
       </c>
       <c r="C23">
-        <v>1.113341795646067</v>
+        <v>0.2654952298290538</v>
       </c>
       <c r="D23">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E23">
-        <v>17.16265192784603</v>
+        <v>18.85354024547847</v>
       </c>
       <c r="F23">
-        <v>21.53004067686565</v>
+        <v>19.89501769627138</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>17.3692954035489</v>
+        <v>17.39802551691593</v>
       </c>
       <c r="C24">
-        <v>1.20580583309345</v>
+        <v>0.5210165759356247</v>
       </c>
       <c r="D24">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E24">
-        <v>15.0042432472618</v>
+        <v>16.37611070572389</v>
       </c>
       <c r="F24">
-        <v>19.734347559836</v>
+        <v>18.41994032810797</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>18.82745072714925</v>
+        <v>18.83909511040533</v>
       </c>
       <c r="C25">
-        <v>1.316355139166853</v>
+        <v>0.8983109941726638</v>
       </c>
       <c r="D25">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E25">
-        <v>16.24556857424968</v>
+        <v>17.07716016936592</v>
       </c>
       <c r="F25">
-        <v>21.40933288004882</v>
+        <v>20.60103005144474</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>16.91527662761272</v>
+        <v>16.94416571483434</v>
       </c>
       <c r="C26">
-        <v>1.108698923974106</v>
+        <v>0.2134062506602434</v>
       </c>
       <c r="D26">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E26">
-        <v>14.7406887222854</v>
+        <v>16.52559360326757</v>
       </c>
       <c r="F26">
-        <v>19.08986453294004</v>
+        <v>17.36273782640111</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>18.03853635441012</v>
+        <v>18.33615266275565</v>
       </c>
       <c r="C27">
-        <v>0.6264514399480263</v>
+        <v>0.2761953933473019</v>
       </c>
       <c r="D27">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E27">
-        <v>16.80982250331083</v>
+        <v>17.79442678246524</v>
       </c>
       <c r="F27">
-        <v>19.26725020550941</v>
+        <v>18.87787854304605</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>18.01595598190649</v>
+        <v>18.31306900766901</v>
       </c>
       <c r="C28">
-        <v>0.575635022132319</v>
+        <v>0.1372705603520062</v>
       </c>
       <c r="D28">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E28">
-        <v>16.88691280350704</v>
+        <v>18.04382840143218</v>
       </c>
       <c r="F28">
-        <v>19.14499916030593</v>
+        <v>18.58230961390585</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>18.59407791726715</v>
+        <v>18.89174758680115</v>
       </c>
       <c r="C29">
-        <v>0.6234420284358781</v>
+        <v>0.2693842649354455</v>
       </c>
       <c r="D29">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E29">
-        <v>17.37126668746112</v>
+        <v>18.36338096095002</v>
       </c>
       <c r="F29">
-        <v>19.81688914707317</v>
+        <v>19.42011421265227</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>17.58638264817928</v>
+        <v>17.8721258938694</v>
       </c>
       <c r="C30">
-        <v>0.6805997247490292</v>
+        <v>0.4644590172857228</v>
       </c>
       <c r="D30">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E30">
-        <v>16.25146304304137</v>
+        <v>16.96114230739973</v>
       </c>
       <c r="F30">
-        <v>18.92130225331719</v>
+        <v>18.78310948033906</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1184,19 +1184,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>19.68696387091968</v>
+        <v>19.98474450964013</v>
       </c>
       <c r="C31">
-        <v>0.573234501871516</v>
+        <v>0.1103386890589872</v>
       </c>
       <c r="D31">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E31">
-        <v>18.562629042292</v>
+        <v>19.76832770870744</v>
       </c>
       <c r="F31">
-        <v>20.81129869954737</v>
+        <v>20.20116131057283</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>41.42168676860187</v>
+        <v>43.64997190878574</v>
       </c>
       <c r="C32">
-        <v>1.011724222979774</v>
+        <v>0.4464768454914731</v>
       </c>
       <c r="D32">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E32">
-        <v>39.43730380290696</v>
+        <v>42.77425830899729</v>
       </c>
       <c r="F32">
-        <v>43.40606973429679</v>
+        <v>44.52568550857418</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1238,19 +1238,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>41.25379871120703</v>
+        <v>43.47421765319983</v>
       </c>
       <c r="C33">
-        <v>0.9296552906560216</v>
+        <v>0.2219013359420657</v>
       </c>
       <c r="D33">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E33">
-        <v>39.43038470090232</v>
+        <v>43.0389833971394</v>
       </c>
       <c r="F33">
-        <v>43.07721272151174</v>
+        <v>43.90945190926026</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>43.00516330204901</v>
+        <v>45.23428246609564</v>
       </c>
       <c r="C34">
-        <v>1.006863998659742</v>
+        <v>0.4354664839836001</v>
       </c>
       <c r="D34">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E34">
-        <v>41.03031311824373</v>
+        <v>44.38016443931035</v>
       </c>
       <c r="F34">
-        <v>44.98001348585429</v>
+        <v>46.08840049288092</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>43.330031817427</v>
+        <v>45.37274354989826</v>
       </c>
       <c r="C35">
-        <v>1.099174147862264</v>
+        <v>0.7508097596582336</v>
       </c>
       <c r="D35">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E35">
-        <v>41.17412568628191</v>
+        <v>43.9001155199657</v>
       </c>
       <c r="F35">
-        <v>45.48593794857209</v>
+        <v>46.84537157983082</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>43.1870959208845</v>
+        <v>45.41794950937356</v>
       </c>
       <c r="C36">
-        <v>0.925778430710086</v>
+        <v>0.1783652841913064</v>
       </c>
       <c r="D36">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E36">
-        <v>41.37128593414902</v>
+        <v>45.06810627187147</v>
       </c>
       <c r="F36">
-        <v>45.00290590761997</v>
+        <v>45.76779274687566</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1346,19 +1346,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>112.0431206708396</v>
+        <v>111.4394220685433</v>
       </c>
       <c r="C37">
-        <v>2.204844923877573</v>
+        <v>0.9723559662851307</v>
       </c>
       <c r="D37">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E37">
-        <v>107.7185660050875</v>
+        <v>109.5322563283491</v>
       </c>
       <c r="F37">
-        <v>116.3676753365916</v>
+        <v>113.3465878087375</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>119.4756940280737</v>
+        <v>118.8813424671497</v>
       </c>
       <c r="C38">
-        <v>2.025992560029706</v>
+        <v>0.4832660195231323</v>
       </c>
       <c r="D38">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E38">
-        <v>115.501938103849</v>
+        <v>117.933471082809</v>
       </c>
       <c r="F38">
-        <v>123.4494499522985</v>
+        <v>119.8292138514903</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>115.7488709502375</v>
+        <v>115.14418131576</v>
       </c>
       <c r="C39">
-        <v>2.194253064280332</v>
+        <v>0.9483771400341264</v>
       </c>
       <c r="D39">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E39">
-        <v>111.4450910225835</v>
+        <v>113.2840473185711</v>
       </c>
       <c r="F39">
-        <v>120.0526508778916</v>
+        <v>117.0043153129489</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>115.9796732675</v>
+        <v>115.5964830070165</v>
       </c>
       <c r="C40">
-        <v>2.395424054624041</v>
+        <v>1.635144927941691</v>
       </c>
       <c r="D40">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E40">
-        <v>111.2813191294408</v>
+        <v>112.3893320304694</v>
       </c>
       <c r="F40">
-        <v>120.6780274055593</v>
+        <v>118.8036339835636</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>116.8103634560126</v>
+        <v>116.2036128847743</v>
       </c>
       <c r="C41">
-        <v>2.017543740896756</v>
+        <v>0.3884513833425026</v>
       </c>
       <c r="D41">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E41">
-        <v>112.8531789376975</v>
+        <v>115.4417096356255</v>
       </c>
       <c r="F41">
-        <v>120.7675479743277</v>
+        <v>116.9655161339231</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>73.26412502953784</v>
+        <v>70.64328024851166</v>
       </c>
       <c r="C42">
-        <v>2.51452224213385</v>
+        <v>1.10940275283192</v>
       </c>
       <c r="D42">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E42">
-        <v>68.33217322803279</v>
+        <v>68.46731280897238</v>
       </c>
       <c r="F42">
-        <v>78.19607683104289</v>
+        <v>72.81924768805094</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>83.28165430961499</v>
+        <v>80.67773902184294</v>
       </c>
       <c r="C43">
-        <v>2.310549508231659</v>
+        <v>0.5513789918494443</v>
       </c>
       <c r="D43">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E43">
-        <v>78.74977202253712</v>
+        <v>79.59627178188184</v>
       </c>
       <c r="F43">
-        <v>87.81353659669287</v>
+        <v>81.75920626180404</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>75.30536651939936</v>
+        <v>72.68272676689948</v>
       </c>
       <c r="C44">
-        <v>2.502442722955702</v>
+        <v>1.082044278389504</v>
       </c>
       <c r="D44">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E44">
-        <v>70.39710733248873</v>
+        <v>70.56041986626747</v>
       </c>
       <c r="F44">
-        <v>80.21362570630998</v>
+        <v>74.80503366753149</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>75.72629865477639</v>
+        <v>73.50484169461848</v>
       </c>
       <c r="C45">
-        <v>2.731868803771279</v>
+        <v>1.865607192464866</v>
       </c>
       <c r="D45">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E45">
-        <v>70.36804608398127</v>
+        <v>69.84566517336744</v>
       </c>
       <c r="F45">
-        <v>81.0845512255715</v>
+        <v>77.16401821586952</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>75.25776001296566</v>
+        <v>72.6313874627172</v>
       </c>
       <c r="C46">
-        <v>2.300914026207733</v>
+        <v>0.4432008944913182</v>
       </c>
       <c r="D46">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E46">
-        <v>70.74477663723165</v>
+        <v>71.76209926857307</v>
       </c>
       <c r="F46">
-        <v>79.77074338869967</v>
+        <v>73.50067565686133</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>154.1939513532346</v>
+        <v>151.6521389900288</v>
       </c>
       <c r="C47">
-        <v>2.93133319525753</v>
+        <v>1.293707467709333</v>
       </c>
       <c r="D47">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E47">
-        <v>148.4444718732308</v>
+        <v>149.1146787945872</v>
       </c>
       <c r="F47">
-        <v>159.9434308332385</v>
+        <v>154.1895991854704</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>161.0610950071757</v>
+        <v>158.5429990121068</v>
       </c>
       <c r="C48">
-        <v>2.693549637094399</v>
+        <v>0.6429794026315533</v>
       </c>
       <c r="D48">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E48">
-        <v>155.7780011603551</v>
+        <v>157.2818679748444</v>
       </c>
       <c r="F48">
-        <v>166.3441888539964</v>
+        <v>159.8041300493692</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>155.8729926836606</v>
+        <v>153.3286657617716</v>
       </c>
       <c r="C49">
-        <v>2.917251356983709</v>
+        <v>1.261803938895347</v>
       </c>
       <c r="D49">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E49">
-        <v>150.1511331413448</v>
+        <v>150.8537807129379</v>
       </c>
       <c r="F49">
-        <v>161.5948522259764</v>
+        <v>155.8035508106053</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>153.5209633359071</v>
+        <v>151.5386496208208</v>
       </c>
       <c r="C50">
-        <v>3.184707446766326</v>
+        <v>2.175539902477332</v>
       </c>
       <c r="D50">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E50">
-        <v>147.2745188359703</v>
+        <v>147.2715753061726</v>
       </c>
       <c r="F50">
-        <v>159.7674078358438</v>
+        <v>155.8057239354691</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1724,19 +1724,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>156.4859220607777</v>
+        <v>153.9363658975724</v>
       </c>
       <c r="C51">
-        <v>2.682316963214737</v>
+        <v>0.516829713496973</v>
       </c>
       <c r="D51">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E51">
-        <v>151.2248598370018</v>
+        <v>152.9226631413055</v>
       </c>
       <c r="F51">
-        <v>161.7469842845535</v>
+        <v>154.9500686538394</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1751,19 +1751,19 @@
         </is>
       </c>
       <c r="B52">
-        <v>281.946853622458</v>
+        <v>281.2261765961118</v>
       </c>
       <c r="C52">
-        <v>3.111213332197805</v>
+        <v>1.372164340333171</v>
       </c>
       <c r="D52">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E52">
-        <v>275.8445595399137</v>
+        <v>278.5348321599814</v>
       </c>
       <c r="F52">
-        <v>288.0491477050024</v>
+        <v>283.9175210322421</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>289.9532090752419</v>
+        <v>289.2472039327163</v>
       </c>
       <c r="C53">
-        <v>2.858838277212091</v>
+        <v>0.6819728801766253</v>
       </c>
       <c r="D53">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E53">
-        <v>284.3459202013353</v>
+        <v>287.9095916200326</v>
       </c>
       <c r="F53">
-        <v>295.5604979491484</v>
+        <v>290.5848162454</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>282.375743701863</v>
+        <v>281.6535110700106</v>
       </c>
       <c r="C54">
-        <v>3.096267367320716</v>
+        <v>1.338326022427458</v>
       </c>
       <c r="D54">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E54">
-        <v>276.3027644438868</v>
+        <v>279.0285366494438</v>
       </c>
       <c r="F54">
-        <v>288.4487229598392</v>
+        <v>284.2784854905775</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>280.8905227536294</v>
+        <v>280.5159737311885</v>
       </c>
       <c r="C55">
-        <v>3.380135797445073</v>
+        <v>2.307475491686663</v>
       </c>
       <c r="D55">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E55">
-        <v>274.2607675833613</v>
+        <v>275.9901227499932</v>
       </c>
       <c r="F55">
-        <v>287.5202779238975</v>
+        <v>285.0418247123837</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>282.8334793402927</v>
+        <v>282.1080116928334</v>
       </c>
       <c r="C56">
-        <v>2.846916314609147</v>
+        <v>0.5481728447783002</v>
       </c>
       <c r="D56">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E56">
-        <v>277.2495740515268</v>
+        <v>281.0328329460416</v>
       </c>
       <c r="F56">
-        <v>288.4173846290586</v>
+        <v>283.1831904396252</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>147.1930301591313</v>
+        <v>147.4076297435188</v>
       </c>
       <c r="C57">
-        <v>1.5415011013255</v>
+        <v>0.6798291572941931</v>
       </c>
       <c r="D57">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E57">
-        <v>144.1695495924004</v>
+        <v>146.0742220996803</v>
       </c>
       <c r="F57">
-        <v>150.2165107258622</v>
+        <v>148.7410373873574</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>148.698945533023</v>
+        <v>148.9203083065263</v>
       </c>
       <c r="C58">
-        <v>1.416457787457742</v>
+        <v>0.3378786598662064</v>
       </c>
       <c r="D58">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E58">
-        <v>145.9207233246246</v>
+        <v>148.2575977079566</v>
       </c>
       <c r="F58">
-        <v>151.4771677414215</v>
+        <v>149.5830189050959</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1940,19 +1940,19 @@
         </is>
       </c>
       <c r="B59">
-        <v>146.6298092756028</v>
+        <v>146.843691784095</v>
       </c>
       <c r="C59">
-        <v>1.534095880641989</v>
+        <v>0.663064201035012</v>
       </c>
       <c r="D59">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E59">
-        <v>143.6208532141154</v>
+        <v>145.5431666969764</v>
       </c>
       <c r="F59">
-        <v>149.6387653370903</v>
+        <v>148.1442168712136</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1967,19 +1967,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>146.4386678366693</v>
+        <v>146.8128194715802</v>
       </c>
       <c r="C60">
-        <v>1.674743097963831</v>
+        <v>1.143222479174367</v>
       </c>
       <c r="D60">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E60">
-        <v>143.1538481199617</v>
+        <v>144.5705184817163</v>
       </c>
       <c r="F60">
-        <v>149.7234875533768</v>
+        <v>149.0551204614442</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1994,19 +1994,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>146.0495140879966</v>
+        <v>146.2619053754152</v>
       </c>
       <c r="C61">
-        <v>1.410550857742505</v>
+        <v>0.2715883747763821</v>
       </c>
       <c r="D61">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E61">
-        <v>143.2828776560778</v>
+        <v>145.7292156385616</v>
       </c>
       <c r="F61">
-        <v>148.8161505199154</v>
+        <v>146.7945951122689</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>

--- a/race_means_data.xlsx
+++ b/race_means_data.xlsx
@@ -397,23 +397,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B2">
-        <v>59.57966638776661</v>
+        <v>62.11</v>
       </c>
       <c r="C2">
-        <v>0.6123803809011135</v>
+        <v>0.245</v>
       </c>
       <c r="D2">
         <v>1669</v>
       </c>
       <c r="E2">
-        <v>58.37855185469733</v>
+        <v>61.63</v>
       </c>
       <c r="F2">
-        <v>60.78078092083588</v>
+        <v>62.59</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -424,23 +424,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B3">
-        <v>62.72991342730861</v>
+        <v>59.58</v>
       </c>
       <c r="C3">
-        <v>0.3043562639336543</v>
+        <v>0.612</v>
       </c>
       <c r="D3">
         <v>1669</v>
       </c>
       <c r="E3">
-        <v>62.13295319924995</v>
+        <v>58.379</v>
       </c>
       <c r="F3">
-        <v>63.32687365536727</v>
+        <v>60.781</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -451,23 +451,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B4">
-        <v>62.01403809670164</v>
+        <v>62.73</v>
       </c>
       <c r="C4">
-        <v>0.5972787481017056</v>
+        <v>0.304</v>
       </c>
       <c r="D4">
         <v>1669</v>
       </c>
       <c r="E4">
-        <v>60.84254370038749</v>
+        <v>62.133</v>
       </c>
       <c r="F4">
-        <v>63.18553249301579</v>
+        <v>63.327</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -478,23 +478,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B5">
-        <v>61.97544811662673</v>
+        <v>62.014</v>
       </c>
       <c r="C5">
-        <v>1.02979845706817</v>
+        <v>0.597</v>
       </c>
       <c r="D5">
         <v>1669</v>
       </c>
       <c r="E5">
-        <v>59.9556154578848</v>
+        <v>60.843</v>
       </c>
       <c r="F5">
-        <v>63.99528077536866</v>
+        <v>63.186</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -505,23 +505,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B6">
-        <v>62.11001428065479</v>
+        <v>61.975</v>
       </c>
       <c r="C6">
-        <v>0.2446429233130154</v>
+        <v>1.03</v>
       </c>
       <c r="D6">
         <v>1669</v>
       </c>
       <c r="E6">
-        <v>61.63017498506628</v>
+        <v>59.956</v>
       </c>
       <c r="F6">
-        <v>62.5898535762433</v>
+        <v>63.995</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -532,23 +532,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B7">
-        <v>109.4713955268609</v>
+        <v>108.749</v>
       </c>
       <c r="C7">
-        <v>1.079147201917023</v>
+        <v>0.431</v>
       </c>
       <c r="D7">
         <v>1669</v>
       </c>
       <c r="E7">
-        <v>107.3547709125382</v>
+        <v>107.903</v>
       </c>
       <c r="F7">
-        <v>111.5880201411835</v>
+        <v>109.594</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -559,23 +559,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B8">
-        <v>113.5303995655652</v>
+        <v>109.471</v>
       </c>
       <c r="C8">
-        <v>0.5363418242214374</v>
+        <v>1.079</v>
       </c>
       <c r="D8">
         <v>1669</v>
       </c>
       <c r="E8">
-        <v>112.4784260212507</v>
+        <v>107.355</v>
       </c>
       <c r="F8">
-        <v>114.5823731098798</v>
+        <v>111.588</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -586,23 +586,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B9">
-        <v>110.3187009410274</v>
+        <v>113.53</v>
       </c>
       <c r="C9">
-        <v>1.052534845793075</v>
+        <v>0.536</v>
       </c>
       <c r="D9">
         <v>1669</v>
       </c>
       <c r="E9">
-        <v>108.2542734393109</v>
+        <v>112.478</v>
       </c>
       <c r="F9">
-        <v>112.383128442744</v>
+        <v>114.582</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -613,23 +613,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B10">
-        <v>109.6268241174945</v>
+        <v>110.319</v>
       </c>
       <c r="C10">
-        <v>1.814728489257456</v>
+        <v>1.053</v>
       </c>
       <c r="D10">
         <v>1669</v>
       </c>
       <c r="E10">
-        <v>106.0674403912971</v>
+        <v>108.254</v>
       </c>
       <c r="F10">
-        <v>113.1862078436918</v>
+        <v>112.383</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -640,23 +640,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B11">
-        <v>108.7487433310839</v>
+        <v>109.627</v>
       </c>
       <c r="C11">
-        <v>0.4311139520400031</v>
+        <v>1.815</v>
       </c>
       <c r="D11">
         <v>1669</v>
       </c>
       <c r="E11">
-        <v>107.9031623011329</v>
+        <v>106.067</v>
       </c>
       <c r="F11">
-        <v>109.594324361035</v>
+        <v>113.186</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -667,23 +667,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B12">
-        <v>127.0818207723118</v>
+        <v>132.422</v>
       </c>
       <c r="C12">
-        <v>1.395258094397726</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="D12">
         <v>1669</v>
       </c>
       <c r="E12">
-        <v>124.3451805617002</v>
+        <v>131.329</v>
       </c>
       <c r="F12">
-        <v>129.8184609829234</v>
+        <v>133.515</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -694,23 +694,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B13">
-        <v>133.7721945926575</v>
+        <v>127.082</v>
       </c>
       <c r="C13">
-        <v>0.6934505971749199</v>
+        <v>1.395</v>
       </c>
       <c r="D13">
         <v>1669</v>
       </c>
       <c r="E13">
-        <v>132.4120700422813</v>
+        <v>124.345</v>
       </c>
       <c r="F13">
-        <v>135.1323191430338</v>
+        <v>129.818</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -721,23 +721,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B14">
-        <v>132.7171827051237</v>
+        <v>133.772</v>
       </c>
       <c r="C14">
-        <v>1.360850271973711</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="D14">
         <v>1669</v>
       </c>
       <c r="E14">
-        <v>130.0480295284761</v>
+        <v>132.412</v>
       </c>
       <c r="F14">
-        <v>135.3863358817714</v>
+        <v>135.132</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -748,23 +748,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B15">
-        <v>131.7594334208735</v>
+        <v>132.717</v>
       </c>
       <c r="C15">
-        <v>2.34631068798834</v>
+        <v>1.361</v>
       </c>
       <c r="D15">
         <v>1669</v>
       </c>
       <c r="E15">
-        <v>127.1574116149305</v>
+        <v>130.048</v>
       </c>
       <c r="F15">
-        <v>136.3614552268164</v>
+        <v>135.386</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -775,23 +775,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B16">
-        <v>132.4217866988549</v>
+        <v>131.759</v>
       </c>
       <c r="C16">
-        <v>0.5573986849273773</v>
+        <v>2.346</v>
       </c>
       <c r="D16">
         <v>1669</v>
       </c>
       <c r="E16">
-        <v>131.3285125149322</v>
+        <v>127.157</v>
       </c>
       <c r="F16">
-        <v>133.5150608827777</v>
+        <v>136.361</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -802,23 +802,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B17">
-        <v>97.63404865969781</v>
+        <v>99.883</v>
       </c>
       <c r="C17">
-        <v>1.497568901692478</v>
+        <v>0.598</v>
       </c>
       <c r="D17">
         <v>1669</v>
       </c>
       <c r="E17">
-        <v>94.6967374260352</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="F17">
-        <v>100.5713598933604</v>
+        <v>101.057</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -829,23 +829,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B18">
-        <v>104.2779802378972</v>
+        <v>97.634</v>
       </c>
       <c r="C18">
-        <v>0.744299605470133</v>
+        <v>1.498</v>
       </c>
       <c r="D18">
         <v>1669</v>
       </c>
       <c r="E18">
-        <v>102.8181211356633</v>
+        <v>94.697</v>
       </c>
       <c r="F18">
-        <v>105.737839340131</v>
+        <v>100.571</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B19">
-        <v>99.73183737149215</v>
+        <v>104.278</v>
       </c>
       <c r="C19">
-        <v>1.460638039191799</v>
+        <v>0.744</v>
       </c>
       <c r="D19">
         <v>1669</v>
       </c>
       <c r="E19">
-        <v>96.8669618282138</v>
+        <v>102.818</v>
       </c>
       <c r="F19">
-        <v>102.5967129147705</v>
+        <v>105.738</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -883,23 +883,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B20">
-        <v>96.49656512024713</v>
+        <v>99.732</v>
       </c>
       <c r="C20">
-        <v>2.518359817548138</v>
+        <v>1.461</v>
       </c>
       <c r="D20">
         <v>1669</v>
       </c>
       <c r="E20">
-        <v>91.55708849641452</v>
+        <v>96.867</v>
       </c>
       <c r="F20">
-        <v>101.4360417440797</v>
+        <v>102.597</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -910,23 +910,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B21">
-        <v>99.88323463451829</v>
+        <v>96.497</v>
       </c>
       <c r="C21">
-        <v>0.5982713447377251</v>
+        <v>2.518</v>
       </c>
       <c r="D21">
         <v>1669</v>
       </c>
       <c r="E21">
-        <v>98.70979337269019</v>
+        <v>91.557</v>
       </c>
       <c r="F21">
-        <v>101.0566758963464</v>
+        <v>101.436</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -937,23 +937,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B22">
-        <v>16.69782659335577</v>
+        <v>16.944</v>
       </c>
       <c r="C22">
-        <v>0.5341899912583558</v>
+        <v>0.213</v>
       </c>
       <c r="D22">
         <v>1669</v>
       </c>
       <c r="E22">
-        <v>15.65007362488801</v>
+        <v>16.526</v>
       </c>
       <c r="F22">
-        <v>17.74557956182353</v>
+        <v>17.363</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -964,23 +964,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B23">
-        <v>19.37427897087493</v>
+        <v>16.698</v>
       </c>
       <c r="C23">
-        <v>0.2654952298290538</v>
+        <v>0.534</v>
       </c>
       <c r="D23">
         <v>1669</v>
       </c>
       <c r="E23">
-        <v>18.85354024547847</v>
+        <v>15.65</v>
       </c>
       <c r="F23">
-        <v>19.89501769627138</v>
+        <v>17.746</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B24">
-        <v>17.39802551691593</v>
+        <v>19.374</v>
       </c>
       <c r="C24">
-        <v>0.5210165759356247</v>
+        <v>0.265</v>
       </c>
       <c r="D24">
         <v>1669</v>
       </c>
       <c r="E24">
-        <v>16.37611070572389</v>
+        <v>18.854</v>
       </c>
       <c r="F24">
-        <v>18.41994032810797</v>
+        <v>19.895</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1018,23 +1018,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B25">
-        <v>18.83909511040533</v>
+        <v>17.398</v>
       </c>
       <c r="C25">
-        <v>0.8983109941726638</v>
+        <v>0.521</v>
       </c>
       <c r="D25">
         <v>1669</v>
       </c>
       <c r="E25">
-        <v>17.07716016936592</v>
+        <v>16.376</v>
       </c>
       <c r="F25">
-        <v>20.60103005144474</v>
+        <v>18.42</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1045,23 +1045,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B26">
-        <v>16.94416571483434</v>
+        <v>18.839</v>
       </c>
       <c r="C26">
-        <v>0.2134062506602434</v>
+        <v>0.898</v>
       </c>
       <c r="D26">
         <v>1669</v>
       </c>
       <c r="E26">
-        <v>16.52559360326757</v>
+        <v>17.077</v>
       </c>
       <c r="F26">
-        <v>17.36273782640111</v>
+        <v>20.601</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1072,23 +1072,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B27">
-        <v>18.33615266275565</v>
+        <v>19.985</v>
       </c>
       <c r="C27">
-        <v>0.2761953933473019</v>
+        <v>0.11</v>
       </c>
       <c r="D27">
         <v>1669</v>
       </c>
       <c r="E27">
-        <v>17.79442678246524</v>
+        <v>19.768</v>
       </c>
       <c r="F27">
-        <v>18.87787854304605</v>
+        <v>20.201</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1099,23 +1099,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B28">
-        <v>18.31306900766901</v>
+        <v>18.336</v>
       </c>
       <c r="C28">
-        <v>0.1372705603520062</v>
+        <v>0.276</v>
       </c>
       <c r="D28">
         <v>1669</v>
       </c>
       <c r="E28">
-        <v>18.04382840143218</v>
+        <v>17.794</v>
       </c>
       <c r="F28">
-        <v>18.58230961390585</v>
+        <v>18.878</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1126,23 +1126,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B29">
-        <v>18.89174758680115</v>
+        <v>18.313</v>
       </c>
       <c r="C29">
-        <v>0.2693842649354455</v>
+        <v>0.137</v>
       </c>
       <c r="D29">
         <v>1669</v>
       </c>
       <c r="E29">
-        <v>18.36338096095002</v>
+        <v>18.044</v>
       </c>
       <c r="F29">
-        <v>19.42011421265227</v>
+        <v>18.582</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1153,23 +1153,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B30">
-        <v>17.8721258938694</v>
+        <v>18.892</v>
       </c>
       <c r="C30">
-        <v>0.4644590172857228</v>
+        <v>0.269</v>
       </c>
       <c r="D30">
         <v>1669</v>
       </c>
       <c r="E30">
-        <v>16.96114230739973</v>
+        <v>18.363</v>
       </c>
       <c r="F30">
-        <v>18.78310948033906</v>
+        <v>19.42</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1180,23 +1180,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B31">
-        <v>19.98474450964013</v>
+        <v>17.872</v>
       </c>
       <c r="C31">
-        <v>0.1103386890589872</v>
+        <v>0.464</v>
       </c>
       <c r="D31">
         <v>1669</v>
       </c>
       <c r="E31">
-        <v>19.76832770870744</v>
+        <v>16.961</v>
       </c>
       <c r="F31">
-        <v>20.20116131057283</v>
+        <v>18.783</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1207,23 +1207,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B32">
-        <v>43.64997190878574</v>
+        <v>45.418</v>
       </c>
       <c r="C32">
-        <v>0.4464768454914731</v>
+        <v>0.178</v>
       </c>
       <c r="D32">
         <v>1669</v>
       </c>
       <c r="E32">
-        <v>42.77425830899729</v>
+        <v>45.068</v>
       </c>
       <c r="F32">
-        <v>44.52568550857418</v>
+        <v>45.768</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1234,23 +1234,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B33">
-        <v>43.47421765319983</v>
+        <v>43.65</v>
       </c>
       <c r="C33">
-        <v>0.2219013359420657</v>
+        <v>0.446</v>
       </c>
       <c r="D33">
         <v>1669</v>
       </c>
       <c r="E33">
-        <v>43.0389833971394</v>
+        <v>42.774</v>
       </c>
       <c r="F33">
-        <v>43.90945190926026</v>
+        <v>44.526</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1261,23 +1261,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B34">
-        <v>45.23428246609564</v>
+        <v>43.474</v>
       </c>
       <c r="C34">
-        <v>0.4354664839836001</v>
+        <v>0.222</v>
       </c>
       <c r="D34">
         <v>1669</v>
       </c>
       <c r="E34">
-        <v>44.38016443931035</v>
+        <v>43.039</v>
       </c>
       <c r="F34">
-        <v>46.08840049288092</v>
+        <v>43.909</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1288,23 +1288,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B35">
-        <v>45.37274354989826</v>
+        <v>45.234</v>
       </c>
       <c r="C35">
-        <v>0.7508097596582336</v>
+        <v>0.435</v>
       </c>
       <c r="D35">
         <v>1669</v>
       </c>
       <c r="E35">
-        <v>43.9001155199657</v>
+        <v>44.38</v>
       </c>
       <c r="F35">
-        <v>46.84537157983082</v>
+        <v>46.088</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1315,23 +1315,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B36">
-        <v>45.41794950937356</v>
+        <v>45.373</v>
       </c>
       <c r="C36">
-        <v>0.1783652841913064</v>
+        <v>0.751</v>
       </c>
       <c r="D36">
         <v>1669</v>
       </c>
       <c r="E36">
-        <v>45.06810627187147</v>
+        <v>43.9</v>
       </c>
       <c r="F36">
-        <v>45.76779274687566</v>
+        <v>46.845</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1342,23 +1342,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B37">
-        <v>111.4394220685433</v>
+        <v>116.204</v>
       </c>
       <c r="C37">
-        <v>0.9723559662851307</v>
+        <v>0.388</v>
       </c>
       <c r="D37">
         <v>1669</v>
       </c>
       <c r="E37">
-        <v>109.5322563283491</v>
+        <v>115.442</v>
       </c>
       <c r="F37">
-        <v>113.3465878087375</v>
+        <v>116.966</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1369,23 +1369,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B38">
-        <v>118.8813424671497</v>
+        <v>111.439</v>
       </c>
       <c r="C38">
-        <v>0.4832660195231323</v>
+        <v>0.972</v>
       </c>
       <c r="D38">
         <v>1669</v>
       </c>
       <c r="E38">
-        <v>117.933471082809</v>
+        <v>109.532</v>
       </c>
       <c r="F38">
-        <v>119.8292138514903</v>
+        <v>113.347</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1396,23 +1396,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B39">
-        <v>115.14418131576</v>
+        <v>118.881</v>
       </c>
       <c r="C39">
-        <v>0.9483771400341264</v>
+        <v>0.483</v>
       </c>
       <c r="D39">
         <v>1669</v>
       </c>
       <c r="E39">
-        <v>113.2840473185711</v>
+        <v>117.933</v>
       </c>
       <c r="F39">
-        <v>117.0043153129489</v>
+        <v>119.829</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1423,23 +1423,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B40">
-        <v>115.5964830070165</v>
+        <v>115.144</v>
       </c>
       <c r="C40">
-        <v>1.635144927941691</v>
+        <v>0.948</v>
       </c>
       <c r="D40">
         <v>1669</v>
       </c>
       <c r="E40">
-        <v>112.3893320304694</v>
+        <v>113.284</v>
       </c>
       <c r="F40">
-        <v>118.8036339835636</v>
+        <v>117.004</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1450,23 +1450,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B41">
-        <v>116.2036128847743</v>
+        <v>115.596</v>
       </c>
       <c r="C41">
-        <v>0.3884513833425026</v>
+        <v>1.635</v>
       </c>
       <c r="D41">
         <v>1669</v>
       </c>
       <c r="E41">
-        <v>115.4417096356255</v>
+        <v>112.389</v>
       </c>
       <c r="F41">
-        <v>116.9655161339231</v>
+        <v>118.804</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1477,23 +1477,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B42">
-        <v>70.64328024851166</v>
+        <v>72.631</v>
       </c>
       <c r="C42">
-        <v>1.10940275283192</v>
+        <v>0.443</v>
       </c>
       <c r="D42">
         <v>1669</v>
       </c>
       <c r="E42">
-        <v>68.46731280897238</v>
+        <v>71.762</v>
       </c>
       <c r="F42">
-        <v>72.81924768805094</v>
+        <v>73.501</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1504,23 +1504,23 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B43">
-        <v>80.67773902184294</v>
+        <v>70.643</v>
       </c>
       <c r="C43">
-        <v>0.5513789918494443</v>
+        <v>1.109</v>
       </c>
       <c r="D43">
         <v>1669</v>
       </c>
       <c r="E43">
-        <v>79.59627178188184</v>
+        <v>68.467</v>
       </c>
       <c r="F43">
-        <v>81.75920626180404</v>
+        <v>72.819</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B44">
-        <v>72.68272676689948</v>
+        <v>80.678</v>
       </c>
       <c r="C44">
-        <v>1.082044278389504</v>
+        <v>0.551</v>
       </c>
       <c r="D44">
         <v>1669</v>
       </c>
       <c r="E44">
-        <v>70.56041986626747</v>
+        <v>79.596</v>
       </c>
       <c r="F44">
-        <v>74.80503366753149</v>
+        <v>81.759</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1558,23 +1558,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B45">
-        <v>73.50484169461848</v>
+        <v>72.68300000000001</v>
       </c>
       <c r="C45">
-        <v>1.865607192464866</v>
+        <v>1.082</v>
       </c>
       <c r="D45">
         <v>1669</v>
       </c>
       <c r="E45">
-        <v>69.84566517336744</v>
+        <v>70.56</v>
       </c>
       <c r="F45">
-        <v>77.16401821586952</v>
+        <v>74.80500000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1585,23 +1585,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B46">
-        <v>72.6313874627172</v>
+        <v>73.505</v>
       </c>
       <c r="C46">
-        <v>0.4432008944913182</v>
+        <v>1.866</v>
       </c>
       <c r="D46">
         <v>1669</v>
       </c>
       <c r="E46">
-        <v>71.76209926857307</v>
+        <v>69.846</v>
       </c>
       <c r="F46">
-        <v>73.50067565686133</v>
+        <v>77.164</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1612,23 +1612,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B47">
-        <v>151.6521389900288</v>
+        <v>153.936</v>
       </c>
       <c r="C47">
-        <v>1.293707467709333</v>
+        <v>0.517</v>
       </c>
       <c r="D47">
         <v>1669</v>
       </c>
       <c r="E47">
-        <v>149.1146787945872</v>
+        <v>152.923</v>
       </c>
       <c r="F47">
-        <v>154.1895991854704</v>
+        <v>154.95</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1639,23 +1639,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B48">
-        <v>158.5429990121068</v>
+        <v>151.652</v>
       </c>
       <c r="C48">
-        <v>0.6429794026315533</v>
+        <v>1.294</v>
       </c>
       <c r="D48">
         <v>1669</v>
       </c>
       <c r="E48">
-        <v>157.2818679748444</v>
+        <v>149.115</v>
       </c>
       <c r="F48">
-        <v>159.8041300493692</v>
+        <v>154.19</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1666,23 +1666,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B49">
-        <v>153.3286657617716</v>
+        <v>158.543</v>
       </c>
       <c r="C49">
-        <v>1.261803938895347</v>
+        <v>0.643</v>
       </c>
       <c r="D49">
         <v>1669</v>
       </c>
       <c r="E49">
-        <v>150.8537807129379</v>
+        <v>157.282</v>
       </c>
       <c r="F49">
-        <v>155.8035508106053</v>
+        <v>159.804</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1693,23 +1693,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B50">
-        <v>151.5386496208208</v>
+        <v>153.329</v>
       </c>
       <c r="C50">
-        <v>2.175539902477332</v>
+        <v>1.262</v>
       </c>
       <c r="D50">
         <v>1669</v>
       </c>
       <c r="E50">
-        <v>147.2715753061726</v>
+        <v>150.854</v>
       </c>
       <c r="F50">
-        <v>155.8057239354691</v>
+        <v>155.804</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1720,23 +1720,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B51">
-        <v>153.9363658975724</v>
+        <v>151.539</v>
       </c>
       <c r="C51">
-        <v>0.516829713496973</v>
+        <v>2.176</v>
       </c>
       <c r="D51">
         <v>1669</v>
       </c>
       <c r="E51">
-        <v>152.9226631413055</v>
+        <v>147.272</v>
       </c>
       <c r="F51">
-        <v>154.9500686538394</v>
+        <v>155.806</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1747,23 +1747,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B52">
-        <v>281.2261765961118</v>
+        <v>282.108</v>
       </c>
       <c r="C52">
-        <v>1.372164340333171</v>
+        <v>0.548</v>
       </c>
       <c r="D52">
         <v>1669</v>
       </c>
       <c r="E52">
-        <v>278.5348321599814</v>
+        <v>281.033</v>
       </c>
       <c r="F52">
-        <v>283.9175210322421</v>
+        <v>283.183</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1774,23 +1774,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B53">
-        <v>289.2472039327163</v>
+        <v>281.226</v>
       </c>
       <c r="C53">
-        <v>0.6819728801766253</v>
+        <v>1.372</v>
       </c>
       <c r="D53">
         <v>1669</v>
       </c>
       <c r="E53">
-        <v>287.9095916200326</v>
+        <v>278.535</v>
       </c>
       <c r="F53">
-        <v>290.5848162454</v>
+        <v>283.918</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1801,23 +1801,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B54">
-        <v>281.6535110700106</v>
+        <v>289.247</v>
       </c>
       <c r="C54">
-        <v>1.338326022427458</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D54">
         <v>1669</v>
       </c>
       <c r="E54">
-        <v>279.0285366494438</v>
+        <v>287.91</v>
       </c>
       <c r="F54">
-        <v>284.2784854905775</v>
+        <v>290.585</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B55">
-        <v>280.5159737311885</v>
+        <v>281.654</v>
       </c>
       <c r="C55">
-        <v>2.307475491686663</v>
+        <v>1.338</v>
       </c>
       <c r="D55">
         <v>1669</v>
       </c>
       <c r="E55">
-        <v>275.9901227499932</v>
+        <v>279.029</v>
       </c>
       <c r="F55">
-        <v>285.0418247123837</v>
+        <v>284.278</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1855,23 +1855,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B56">
-        <v>282.1080116928334</v>
+        <v>280.516</v>
       </c>
       <c r="C56">
-        <v>0.5481728447783002</v>
+        <v>2.307</v>
       </c>
       <c r="D56">
         <v>1669</v>
       </c>
       <c r="E56">
-        <v>281.0328329460416</v>
+        <v>275.99</v>
       </c>
       <c r="F56">
-        <v>283.1831904396252</v>
+        <v>285.042</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1882,23 +1882,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B57">
-        <v>147.4076297435188</v>
+        <v>146.262</v>
       </c>
       <c r="C57">
-        <v>0.6798291572941931</v>
+        <v>0.272</v>
       </c>
       <c r="D57">
         <v>1669</v>
       </c>
       <c r="E57">
-        <v>146.0742220996803</v>
+        <v>145.729</v>
       </c>
       <c r="F57">
-        <v>148.7410373873574</v>
+        <v>146.795</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1909,23 +1909,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B58">
-        <v>148.9203083065263</v>
+        <v>147.408</v>
       </c>
       <c r="C58">
-        <v>0.3378786598662064</v>
+        <v>0.68</v>
       </c>
       <c r="D58">
         <v>1669</v>
       </c>
       <c r="E58">
-        <v>148.2575977079566</v>
+        <v>146.074</v>
       </c>
       <c r="F58">
-        <v>149.5830189050959</v>
+        <v>148.741</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1936,23 +1936,23 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LatinX</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B59">
-        <v>146.843691784095</v>
+        <v>148.92</v>
       </c>
       <c r="C59">
-        <v>0.663064201035012</v>
+        <v>0.338</v>
       </c>
       <c r="D59">
         <v>1669</v>
       </c>
       <c r="E59">
-        <v>145.5431666969764</v>
+        <v>148.258</v>
       </c>
       <c r="F59">
-        <v>148.1442168712136</v>
+        <v>149.583</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1963,23 +1963,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LatinX</t>
         </is>
       </c>
       <c r="B60">
-        <v>146.8128194715802</v>
+        <v>146.844</v>
       </c>
       <c r="C60">
-        <v>1.143222479174367</v>
+        <v>0.663</v>
       </c>
       <c r="D60">
         <v>1669</v>
       </c>
       <c r="E60">
-        <v>144.5705184817163</v>
+        <v>145.543</v>
       </c>
       <c r="F60">
-        <v>149.0551204614442</v>
+        <v>148.144</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1990,23 +1990,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B61">
-        <v>146.2619053754152</v>
+        <v>146.813</v>
       </c>
       <c r="C61">
-        <v>0.2715883747763821</v>
+        <v>1.143</v>
       </c>
       <c r="D61">
         <v>1669</v>
       </c>
       <c r="E61">
-        <v>145.7292156385616</v>
+        <v>144.571</v>
       </c>
       <c r="F61">
-        <v>146.7945951122689</v>
+        <v>149.055</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
